--- a/calculate.xlsx
+++ b/calculate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3DC226-52B8-43A4-9986-0F39E2185B72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A607F0F0-696D-4514-9D46-457941E37729}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="345" yWindow="1845" windowWidth="11070" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
   <dimension ref="G4:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
